--- a/BMS Slave Files/BatMeas5.3 Manufacturing Files/Assembly/jlcpcb-bom.xlsx
+++ b/BMS Slave Files/BatMeas5.3 Manufacturing Files/Assembly/jlcpcb-bom.xlsx
@@ -217,7 +217,7 @@
     <t xml:space="preserve">3V3</t>
   </si>
   <si>
-    <t xml:space="preserve">C89347</t>
+    <t xml:space="preserve">C105222</t>
   </si>
   <si>
     <t xml:space="preserve">R10</t>
@@ -392,10 +392,10 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>

--- a/BMS Slave Files/BatMeas5.3 Manufacturing Files/Assembly/jlcpcb-bom.xlsx
+++ b/BMS Slave Files/BatMeas5.3 Manufacturing Files/Assembly/jlcpcb-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">C4172</t>
   </si>
   <si>
-    <t xml:space="preserve">R1, R2, R3, R4</t>
+    <t xml:space="preserve">R1, R2, R3</t>
   </si>
   <si>
     <t xml:space="preserve">1M</t>
@@ -133,6 +133,18 @@
     <t xml:space="preserve">C22935</t>
   </si>
   <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">953k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C246846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
     <t xml:space="preserve">R6, R16</t>
   </si>
   <si>
@@ -163,9 +175,6 @@
     <t xml:space="preserve">C305661</t>
   </si>
   <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
     <t xml:space="preserve">R19, R20, R21, R22</t>
   </si>
   <si>
@@ -199,6 +208,15 @@
     <t xml:space="preserve">C270938</t>
   </si>
   <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3M9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23019</t>
+  </si>
+  <si>
     <t xml:space="preserve">IC3</t>
   </si>
   <si>
@@ -220,12 +238,6 @@
     <t xml:space="preserve">C105222</t>
   </si>
   <si>
-    <t xml:space="preserve">R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4M12</t>
-  </si>
-  <si>
     <t xml:space="preserve">C5</t>
   </si>
   <si>
@@ -238,7 +250,7 @@
     <t xml:space="preserve">IC1</t>
   </si>
   <si>
-    <t xml:space="preserve">ATTINY84A-SSU</t>
+    <t xml:space="preserve">ATTINY44A-SSU</t>
   </si>
   <si>
     <t xml:space="preserve">SO014</t>
@@ -373,7 +385,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Daten" displayName="Daten" ref="A3:E32" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Daten" displayName="Daten" ref="A3:E33" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="X1_"/>
     <tableColumn id="2" name="4400W03J7923"/>
@@ -385,17 +397,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -555,50 +567,53 @@
       <c r="D12" s="0" t="s">
         <v>39</v>
       </c>
+      <c r="E12" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>22</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>50</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
@@ -606,21 +621,21 @@
         <v>51</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="0" t="s">
         <v>54</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>220</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>17</v>
@@ -642,9 +657,6 @@
       <c r="D18" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -654,72 +666,78 @@
         <v>60</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="E20" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>17</v>
+      <c r="D21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
@@ -736,7 +754,7 @@
         <v>78</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
@@ -747,25 +765,42 @@
         <v>80</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
+      <c r="D26" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/BMS Slave Files/BatMeas5.3 Manufacturing Files/Assembly/jlcpcb-bom.xlsx
+++ b/BMS Slave Files/BatMeas5.3 Manufacturing Files/Assembly/jlcpcb-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -34,6 +34,33 @@
     <t xml:space="preserve">LCSC Part #</t>
   </si>
   <si>
+    <t xml:space="preserve">X1_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4400W03J7923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM05B-PASS-1-TFT(LF)(SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3020-10-0300-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2X05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C180223 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
     <t xml:space="preserve">D2, D3</t>
   </si>
   <si>
@@ -46,120 +73,78 @@
     <t xml:space="preserve">C2128</t>
   </si>
   <si>
-    <t xml:space="preserve">X1_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4400W03J7923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BM05B-PASS-1-TFT(LF)(SN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3020-10-0300-00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2X05</t>
-  </si>
-  <si>
     <t xml:space="preserve">R14</t>
   </si>
   <si>
-    <t xml:space="preserve">100k</t>
+    <t xml:space="preserve">47k</t>
   </si>
   <si>
     <t xml:space="preserve">R0603</t>
   </si>
   <si>
-    <t xml:space="preserve">C25803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2, C3, C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100n</t>
+    <t xml:space="preserve">C25819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10µ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED1, LED2, LED3, LED4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150060GS75000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIPLED_0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R2, R3, R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6, R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1, C2, C3, C4, C6, C7, C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1µ</t>
   </si>
   <si>
     <t xml:space="preserve">C0603</t>
   </si>
   <si>
-    <t xml:space="preserve">C14663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10µ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED1, LED2, LED3, LED4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150060GS75000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHIPLED_0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1500k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1, R2, R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">953k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C246846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6, R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1, C6, C7, C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1µ</t>
-  </si>
-  <si>
     <t xml:space="preserve">C15849</t>
   </si>
   <si>
@@ -193,40 +178,40 @@
     <t xml:space="preserve">R7</t>
   </si>
   <si>
-    <t xml:space="preserve">270k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22965</t>
+    <t xml:space="preserve">68k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23231</t>
   </si>
   <si>
     <t xml:space="preserve">R9</t>
   </si>
   <si>
-    <t xml:space="preserve">2M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C270938</t>
+    <t xml:space="preserve">649k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25821</t>
   </si>
   <si>
     <t xml:space="preserve">R10</t>
   </si>
   <si>
-    <t xml:space="preserve">3M9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23019</t>
+    <t xml:space="preserve">910k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23263</t>
   </si>
   <si>
     <t xml:space="preserve">IC3</t>
   </si>
   <si>
-    <t xml:space="preserve">3V</t>
+    <t xml:space="preserve">2.5V</t>
   </si>
   <si>
     <t xml:space="preserve">SOT23-5</t>
   </si>
   <si>
-    <t xml:space="preserve">C130823</t>
+    <t xml:space="preserve">C46572</t>
   </si>
   <si>
     <t xml:space="preserve">IC2</t>
@@ -385,7 +370,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Daten" displayName="Daten" ref="A3:E33" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Daten" displayName="Daten" ref="A2:E31" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="X1_"/>
     <tableColumn id="2" name="4400W03J7923"/>
@@ -401,13 +386,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -436,195 +421,198 @@
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>220</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>22</v>
+      <c r="B16" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>53</v>
@@ -634,177 +622,149 @@
       <c r="A17" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>220</v>
+      <c r="B17" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="D20" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="D24" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="2" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
